--- a/list.xlsx
+++ b/list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="513">
   <si>
     <t>node</t>
   </si>
@@ -311,13 +311,1253 @@
   </si>
   <si>
     <t>故宮南院嘉義田園城鄉計畫</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/24515</t>
+  </si>
+  <si>
+    <t>嘉義縣社區照顧關懷據點</t>
+  </si>
+  <si>
+    <t>最後更新為104年、多餘欄列</t>
+  </si>
+  <si>
+    <t>由嘉義縣社會局下載105年12月資料，再轉換整理成CVS檔http://www.sabcc.gov.tw/downloadfile_url.aspx?url=files/201701/44bcc9ea-3664-4dd0-99aa-6a0b83f5d438.pdf&amp;filename=%e5%98%89%e7%be%a9%e7%b8%a3%e7%a4%be%e5%8d%80%e7%85%a7%e9%a1%a7%e9%97%9c%e6%87%b7%e6%93%9a%e9%bb%9e%e4%b8%80%e8%a6%bd%e8%a1%a8%ef%bc%88%e6%88%aa%e8%87%b3105%e5%b9%b412%e6%9c%88%e5%ba%95%e6%ad%a2%ef%bc%89.pdf</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/19692</t>
+  </si>
+  <si>
+    <t>嘉義縣公有零售市場名冊</t>
+  </si>
+  <si>
+    <t>刪除總計項目</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/22161</t>
+  </si>
+  <si>
+    <t>嘉義縣珍貴老樹</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>只修正一兩處格式</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/19127</t>
+  </si>
+  <si>
+    <t>嘉義縣政府年度施政計畫</t>
+  </si>
+  <si>
+    <t>104年施政計畫txt檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21725</t>
+  </si>
+  <si>
+    <t>嘉義縣災民收容所清冊</t>
+  </si>
+  <si>
+    <t>最後更新為104年，但少數鄉鎮有106年資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/22158</t>
+  </si>
+  <si>
+    <t>嘉義縣各鄉鎮農產品介紹</t>
+  </si>
+  <si>
+    <t>刪除空白列</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20976</t>
+  </si>
+  <si>
+    <t>嘉義縣各公所列管都市公園綠地清冊</t>
+  </si>
+  <si>
+    <t>嘉義縣政府建設處有相關檔案(嘉義縣都計公園統計表_1060630)</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/19832</t>
+  </si>
+  <si>
+    <t>嘉義縣轄內抽水站</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列(編號)</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/19699</t>
+  </si>
+  <si>
+    <t>嘉義縣傳統公有市場位置資訊</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列(編號、總計)，與19692重複?</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/17331</t>
+  </si>
+  <si>
+    <t>嘉義縣違反法令事業單位</t>
+  </si>
+  <si>
+    <t>將分年檔案合併為1個、統一日期格式、修正格式與亂碼</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/22162</t>
+  </si>
+  <si>
+    <t>嘉義縣農特產精品館</t>
+  </si>
+  <si>
+    <t>內容為嘉義縣各農會網址</t>
+  </si>
+  <si>
+    <t>修正溪口鄉與義竹鄉農會網站連結網址</t>
+  </si>
+  <si>
+    <t>口頭報告的文字記錄文件</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26400</t>
+  </si>
+  <si>
+    <t>嘉義縣公車處站位資訊</t>
+  </si>
+  <si>
+    <t>各路線分開的pdf檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20590</t>
+  </si>
+  <si>
+    <t>嘉義縣法律扶助諮詢服務一覽表</t>
+  </si>
+  <si>
+    <t>四個pdf檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27125</t>
+  </si>
+  <si>
+    <t>嘉義縣少年犯罪分析</t>
+  </si>
+  <si>
+    <t>分別的txt、pdf和xml檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21455</t>
+  </si>
+  <si>
+    <t>嘉義縣政府及其所屬機關職（教）員合計官等性別統計表</t>
+  </si>
+  <si>
+    <t>複雜的表格無法處理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/24519</t>
+  </si>
+  <si>
+    <t>嘉義縣立案老人安養護機構</t>
+  </si>
+  <si>
+    <t>修正格式與多餘欄列</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21368</t>
+  </si>
+  <si>
+    <t>嘉義縣各級學校查詢</t>
+  </si>
+  <si>
+    <t>地址將縣鄉鎮村里路段巷弄號全部分欄</t>
+  </si>
+  <si>
+    <t>修正格式與錯別字</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20523</t>
+  </si>
+  <si>
+    <t>嘉義縣大客車禁行路段</t>
+  </si>
+  <si>
+    <t>最後更新為104年</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列、由嘉義縣政府建設處取得更新於105年9月30日檔案(嘉義縣大客車禁行路段_1060630)</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27278</t>
+  </si>
+  <si>
+    <t>合法收出養媒合服務者</t>
+  </si>
+  <si>
+    <t>修正格式、財團法人宜蘭縣私立神
+愛兒童之家已於105.10.3廢止跨國境</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20540</t>
+  </si>
+  <si>
+    <t>歷年自辦市地重劃成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/24935</t>
+  </si>
+  <si>
+    <t>嘉義縣政府暨所轄鄉鎮市公所公共債務訊息</t>
+  </si>
+  <si>
+    <t>有近3年各月各鄉鎮與縣府的債務資訊，檔案略多不好整理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21453</t>
+  </si>
+  <si>
+    <t>嘉義縣政府及其所屬機關職（教）員合計年齡統計表</t>
+  </si>
+  <si>
+    <t>複雜表格</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/25448</t>
+  </si>
+  <si>
+    <t>嘉義縣兒童安置教養機構</t>
+  </si>
+  <si>
+    <t>連結的檔案變成嘉義縣立案老人安養護機構</t>
+  </si>
+  <si>
+    <t>已從嘉義縣社會局找到嘉義縣立案兒童及少年安置及教養機構檔案來修正</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/30338</t>
+  </si>
+  <si>
+    <t>北嘉義兩溪流域門戶觀光亮點整合鏈結計畫</t>
+  </si>
+  <si>
+    <t>pdf檔的簡報</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26302</t>
+  </si>
+  <si>
+    <t>嘉義縣委託辦理老人收容照顧合約機構</t>
+  </si>
+  <si>
+    <t>最後更新為105年</t>
+  </si>
+  <si>
+    <t>由嘉義縣社會局取得106年資料更新</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27114</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1+A2類道路交通事故統計表─時間別</t>
+  </si>
+  <si>
+    <t>pdf檔、複雜表格、連結失效</t>
+  </si>
+  <si>
+    <t>20170707尚未找到好用檔案處理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/25522</t>
+  </si>
+  <si>
+    <t>嘉義縣職業工會</t>
+  </si>
+  <si>
+    <t>嘉義縣照顧服務員職業工會傳真誤植</t>
+  </si>
+  <si>
+    <t>多餘欄列、修正格式與錯別字</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20524</t>
+  </si>
+  <si>
+    <t>嘉義縣大客車行駛應特別注意路段</t>
+  </si>
+  <si>
+    <t>連結失效</t>
+  </si>
+  <si>
+    <t>由公路總局找到大客車行駛應特別注意路段檔案中擷取整理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26954</t>
+  </si>
+  <si>
+    <t>105年度愛滋病匿名篩檢諮詢服務機構名冊</t>
+  </si>
+  <si>
+    <t>由網路上找到全國名冊擷取整理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21443</t>
+  </si>
+  <si>
+    <t>嘉義縣國中各校男女生人數</t>
+  </si>
+  <si>
+    <t>無須修正</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26779</t>
+  </si>
+  <si>
+    <t>嘉義縣高風險家庭關懷服務單位</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/25521</t>
+  </si>
+  <si>
+    <t>嘉義縣視障者按摩院</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21442</t>
+  </si>
+  <si>
+    <t>嘉義縣國中小鄉鎮查詢</t>
+  </si>
+  <si>
+    <t>與21368資料相同</t>
+  </si>
+  <si>
+    <t>同21368處理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26264</t>
+  </si>
+  <si>
+    <t>嘉義縣已立案之老人福利機構收住人數統計</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26956</t>
+  </si>
+  <si>
+    <t>嘉義縣公廁建檔基本資料</t>
+  </si>
+  <si>
+    <t>修正格式與多餘欄列，修正電話格式</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27032</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局取締酒駕違規及移送法辦件數一覽表</t>
+  </si>
+  <si>
+    <t>105年資料為pdf檔</t>
+  </si>
+  <si>
+    <t>修正欄標題格式</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27042</t>
+  </si>
+  <si>
+    <t>嘉義縣犯罪統計資訊</t>
+  </si>
+  <si>
+    <t>只有從104年下半年開始的資料</t>
+  </si>
+  <si>
+    <t>將3個檔案合併成1個</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27100</t>
+  </si>
+  <si>
+    <t>臺灣健康社區六星計畫社區治安績效季報表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/25524</t>
+  </si>
+  <si>
+    <t>嘉義縣企業工會</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21445</t>
+  </si>
+  <si>
+    <t>嘉義縣國中、小學校代碼</t>
+  </si>
+  <si>
+    <t>無需修正</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20577</t>
+  </si>
+  <si>
+    <t>歷年辦理農地重劃成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27119</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1+A2類道路交通事故統計表</t>
+  </si>
+  <si>
+    <t>連結失效、多餘欄列</t>
+  </si>
+  <si>
+    <t>由嘉義縣警察局開放資料中找出104與105年資料合併整理成1個檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27282</t>
+  </si>
+  <si>
+    <t>嘉義縣收容所分布圖</t>
+  </si>
+  <si>
+    <t>jpg圖檔</t>
+  </si>
+  <si>
+    <t>清冊檔案在21725</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27115</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1類道路交通事故統計表─車種別</t>
+  </si>
+  <si>
+    <t>非結構性資料、105年為pdf檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/37421</t>
+  </si>
+  <si>
+    <t>嘉義縣全縣景點</t>
+  </si>
+  <si>
+    <t>連結到嘉義縣文化局的超連結</t>
+  </si>
+  <si>
+    <t>無法處理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27026</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局員警退休人數統計</t>
+  </si>
+  <si>
+    <t>兩個CSV檔應該一樣但內容不同</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20957</t>
+  </si>
+  <si>
+    <t>嘉義縣有線電視業者名冊</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27089</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局舉發違反道路交通管理事件成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26962</t>
+  </si>
+  <si>
+    <t>跨縣市飲用水保護區</t>
+  </si>
+  <si>
+    <t>連結失效、pdf圖檔</t>
+  </si>
+  <si>
+    <t>嘉義縣政府的開放資料可找出檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27028</t>
+  </si>
+  <si>
+    <t>嘉義縣交通肇事案件資料</t>
+  </si>
+  <si>
+    <t>複雜表格，原因和路段可以分成兩個檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27120</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1類道路交通事故統計表</t>
+  </si>
+  <si>
+    <t>部份為pdf檔、複雜表格</t>
+  </si>
+  <si>
+    <t>由嘉義縣警察局開放資料中找出105年資料合併整理成1個檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26433</t>
+  </si>
+  <si>
+    <t>105-107年指定藥癮戒治機構</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列、將聯合醫院各院區拆開成獨立列</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26436</t>
+  </si>
+  <si>
+    <t>嘉義縣身心障礙人數年齡分配</t>
+  </si>
+  <si>
+    <t>內容為鄉鎮人數非年齡分配，複雜表格</t>
+  </si>
+  <si>
+    <t>嘉義縣社會局可查到相關檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27056</t>
+  </si>
+  <si>
+    <t>嘉義縣住宅竊盜點位資訊</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列，修正錯字，合併3個檔案成1個</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26844</t>
+  </si>
+  <si>
+    <t>嘉義縣居家服務辦理單位</t>
+  </si>
+  <si>
+    <t>資料未更新</t>
+  </si>
+  <si>
+    <t>由嘉義縣社會局網頁資料更新單位，將電話與聯絡人欄位分開</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/21435</t>
+  </si>
+  <si>
+    <t>嘉義縣國小新生報到人數</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26749</t>
+  </si>
+  <si>
+    <t>嘉義縣衛生局藥物濫用防制諮詢調查表</t>
+  </si>
+  <si>
+    <t>pdf文件</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27075</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警用車輛油料管理報表</t>
+  </si>
+  <si>
+    <t>104年與105年資料完全不同，pdf表格</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27117</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1類道路交通事故統計表─道路類別及型態別</t>
+  </si>
+  <si>
+    <t>複雜表格、pdf檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26847</t>
+  </si>
+  <si>
+    <t>嘉義縣日間照顧服務辦理單位</t>
+  </si>
+  <si>
+    <t>格式跑掉</t>
+  </si>
+  <si>
+    <t>由嘉義縣社會局網頁資料修正格式與錯別字</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27105</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警察人員傷亡人數統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/23100</t>
+  </si>
+  <si>
+    <t>嘉義縣辦理急難救助概況</t>
+  </si>
+  <si>
+    <t>複雜表格、只放了104年某一季的檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27102</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局單位預算彙整表</t>
+  </si>
+  <si>
+    <t>非結構性資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/23098</t>
+  </si>
+  <si>
+    <t>嘉義縣身心障礙福利機構概況</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27280</t>
+  </si>
+  <si>
+    <t>嘉義縣物資儲備所清冊</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列，修正錯別字</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27171</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局少年安全宣導</t>
+  </si>
+  <si>
+    <t>jason檔打開連結到嘉義縣警察局超連結</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28049</t>
+  </si>
+  <si>
+    <t>嘉義縣垃圾清運</t>
+  </si>
+  <si>
+    <t>各鄉鎮清運路線的pdf檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26951</t>
+  </si>
+  <si>
+    <t>腸病毒重症醫療網</t>
+  </si>
+  <si>
+    <t>可以google到相關pdf檔案重新整理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27113</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1類道路交通事故統計表─時間別</t>
+  </si>
+  <si>
+    <t>多餘欄列、pdf檔</t>
+  </si>
+  <si>
+    <t>由嘉義縣警察局查到104與105年xls檔案重新整理</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26958</t>
+  </si>
+  <si>
+    <t>嘉義縣甲乙級廢棄物清除處理機構</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27164</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局員警好人好事事蹟</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26265</t>
+  </si>
+  <si>
+    <t>嘉義縣預告統計資料發布時間表</t>
+  </si>
+  <si>
+    <t>刪除多餘欄列，修正格式</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27106</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警察人員職員退休、資遣、撫卹人數統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27281</t>
+  </si>
+  <si>
+    <t>嘉義縣山區物資儲備所分佈圖</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20548</t>
+  </si>
+  <si>
+    <t>歷年公辦農村社區土地重劃成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/20576</t>
+  </si>
+  <si>
+    <t>歷年早期農地重劃鄉鎮農水路更新改善資料統計表</t>
+  </si>
+  <si>
+    <t>無法連上這個網站</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27172</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局外僑安全宣導</t>
+  </si>
+  <si>
+    <t>網頁超連結</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27169</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局交通安全宣導</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27083</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局攻勢勤務線上查獲績效表</t>
+  </si>
+  <si>
+    <t>多餘欄列、多檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27210</t>
+  </si>
+  <si>
+    <t>嘉義縣衛生局104年度通過餐飲業衛生分級評核名單</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26435</t>
+  </si>
+  <si>
+    <t>嘉義縣乙、丙級清除機構基本資料</t>
+  </si>
+  <si>
+    <t>xls非csv</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27127</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局受理警察刑事紀錄證明案件統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27098</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局取締攤販績效統計</t>
+  </si>
+  <si>
+    <t>多餘欄列、pdf表格、多檔案、非結構資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27209</t>
+  </si>
+  <si>
+    <t>嘉義縣衛生局103年度通過烘焙業衛生分級評核名單</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27118</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1+A2類道路交通事故─道路類別及型態別</t>
+  </si>
+  <si>
+    <t>pdf表格、多餘欄列</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27122</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局民眾申請國家賠償案件統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27107</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警察人員違法起訴案件統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27094</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局舉發違反高速公路及快速公路管制規定成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27116</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局A1+A2類道路交通事故統計表─車種別</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27061</t>
+  </si>
+  <si>
+    <t>嘉義縣違反毒品危害防制條例行政裁罰處分人數統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27641</t>
+  </si>
+  <si>
+    <t>北緯235第一、二次遴選業者資料</t>
+  </si>
+  <si>
+    <t>pdf表格</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26959</t>
+  </si>
+  <si>
+    <t>嘉義縣病媒防治業及販賣業名單</t>
+  </si>
+  <si>
+    <t>資料未更新、連結中無csv檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27029</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局移動式違規照相設備設置地點</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27081</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局處理家庭暴力案件統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27103</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警察人員獎勵統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27207</t>
+  </si>
+  <si>
+    <t>嘉義縣衛生局101年度通過餐飲業衛生分級評核名單</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/26960</t>
+  </si>
+  <si>
+    <t>嘉義縣飲用水保護區</t>
+  </si>
+  <si>
+    <t>壓縮檔、jpg圖檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27086</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局110電話抽訪情形</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27168</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局犯罪預防宣導</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27025</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局組織編制</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27123</t>
+  </si>
+  <si>
+    <t>嘉義縣察局廉政會報會議紀錄</t>
+  </si>
+  <si>
+    <t>pdf文件、txt文件</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27099</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局執行家戶訪查發現及處理戶口(籍)案件成果統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28032</t>
+  </si>
+  <si>
+    <t>嘉義縣綠色商店名單</t>
+  </si>
+  <si>
+    <t>多餘欄列、無csv檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42693</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草焚化廠</t>
+  </si>
+  <si>
+    <t>壓縮檔、jpg圖檔、pdf圖檔</t>
+  </si>
+  <si>
+    <t>找不到檔案</t>
+  </si>
+  <si>
+    <t>pdf表格、多餘欄列、非結構性資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42689</t>
+  </si>
+  <si>
+    <t>嘉義縣各村里活動中心資本資料表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/48134</t>
+  </si>
+  <si>
+    <t>嘉義縣各鄉鎮避難收容處所</t>
+  </si>
+  <si>
+    <t>GEOJSON</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/48133</t>
+  </si>
+  <si>
+    <t>嘉義縣消防局、各消防分隊據點</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/48132</t>
+  </si>
+  <si>
+    <t>嘉義縣民宿資料庫</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/48130</t>
+  </si>
+  <si>
+    <t>嘉義縣社區藥局健康好讚</t>
+  </si>
+  <si>
+    <t>csv是多頁工作表、連結到縣府資料庫才能下載</t>
+  </si>
+  <si>
+    <t>csv有多餘欄列</t>
+  </si>
+  <si>
+    <t>資料未更新、多餘欄列</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28034</t>
+  </si>
+  <si>
+    <t>嘉義縣環保旅店名單</t>
+  </si>
+  <si>
+    <t>csv檔無法連上這個網站</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47481</t>
+  </si>
+  <si>
+    <t>嘉義縣醫療機構名冊</t>
+  </si>
+  <si>
+    <t>pdf檔無法連上這個網站</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27073</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局各單位電話地址</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42568</t>
+  </si>
+  <si>
+    <t>嘉義縣殯儀館納骨堂設置概況</t>
+  </si>
+  <si>
+    <t>pdf表格、非結構化資料</t>
+  </si>
+  <si>
+    <t>pdf表格、資料未更新</t>
+  </si>
+  <si>
+    <t>連結txt打開為odt表格</t>
+  </si>
+  <si>
+    <t>csv有多餘欄列、資料未更新</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42685</t>
+  </si>
+  <si>
+    <t>嘉義縣合法民宿資料庫</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47994</t>
+  </si>
+  <si>
+    <t>106年度嘉義縣卡介苗接種門診時間及服務單位</t>
+  </si>
+  <si>
+    <t>非結構化資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47996</t>
+  </si>
+  <si>
+    <t>106年度愛滋病匿名篩檢諮詢服務機構名冊</t>
+  </si>
+  <si>
+    <t>pdf圖檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42576</t>
+  </si>
+  <si>
+    <t>嘉義縣流感抗病毒藥劑克流感合約醫療院所</t>
+  </si>
+  <si>
+    <t>有值為NULL</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27856</t>
+  </si>
+  <si>
+    <t>嘉義縣空氣品質監測網</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28045</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草垃圾焚化廠室內溫水游泳池地址</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28046</t>
+  </si>
+  <si>
+    <t>嘉義縣縣治地區廣告淨區</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28047</t>
+  </si>
+  <si>
+    <t>嘉義縣柴油車排煙動力檢測站</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42692</t>
+  </si>
+  <si>
+    <t>嘉義縣機車排氣檢驗站名冊</t>
+  </si>
+  <si>
+    <t>xls非csv檔</t>
+  </si>
+  <si>
+    <t>多餘欄列、xls非csv檔</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28033</t>
+  </si>
+  <si>
+    <t>嘉義縣環保餐館名單</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/28036</t>
+  </si>
+  <si>
+    <t>嘉義縣環境教育場域</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42625</t>
+  </si>
+  <si>
+    <t>嘉義縣設立-變更-歇業登記清冊</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42673</t>
+  </si>
+  <si>
+    <t>房屋標準單價表、耐用年數及折舊率標準表、房屋用途類別及用途細類別對照表</t>
+  </si>
+  <si>
+    <t>非結構化資料、pdf表格、doc表格</t>
+  </si>
+  <si>
+    <t>多餘欄列、多月份檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42525</t>
+  </si>
+  <si>
+    <t>106年社區複合式健康篩檢辦理場地及日期</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42564</t>
+  </si>
+  <si>
+    <t>嘉義縣縣有基地換約續租申請書</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27170</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局婦幼安全宣導</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27167</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局員警優良事蹟</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27166</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局破案消息</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27165</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局警政消息</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27124</t>
+  </si>
+  <si>
+    <t>嘉義縣少年犯罪預防宣導統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27110</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局歲出預算編列暨執行統計</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27101</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局為民服務成果表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27096</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局處理違反社會秩序維護法案件統計</t>
+  </si>
+  <si>
+    <t>pdf表格、多餘欄列、多月份檔案</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27087</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局防空避難設備統計表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27063</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局各分駐(派出)所數量</t>
+  </si>
+  <si>
+    <t>兩個資料檔案相同</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/27062</t>
+  </si>
+  <si>
+    <t>嘉義縣警察局各分局巡邏線箱數量</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47586</t>
+  </si>
+  <si>
+    <t>嘉義縣103年度火災調查統計-按起火建築物分-2</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47584</t>
+  </si>
+  <si>
+    <t>嘉義縣103年度火災調查統計-按人員死傷、財物損失分</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47583</t>
+  </si>
+  <si>
+    <t>嘉義縣103年度火災調查統計-按分類及時間分</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47582</t>
+  </si>
+  <si>
+    <t>嘉義縣103年度火災調查統計-按起火原因分</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/47581</t>
+  </si>
+  <si>
+    <t>嘉義縣103年度火災調查統計-按起火處所分</t>
+  </si>
+  <si>
+    <t>多餘欄列、非結構化資料</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42563</t>
+  </si>
+  <si>
+    <t>使用牌照稅額表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42637</t>
+  </si>
+  <si>
+    <t>復查案件各項稅目處理辦結情形分析圖表</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42554</t>
+  </si>
+  <si>
+    <t>嘉義縣財政稅務局106年度施政計畫</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42565</t>
+  </si>
+  <si>
+    <t>全功能櫃臺作業項目及應備證件項目</t>
+  </si>
+  <si>
+    <t>http://data.gov.tw/node/42688</t>
+  </si>
+  <si>
+    <t>第20屆村里長名冊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -333,12 +1573,34 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF646464"/>
-      <name val="&quot;Segoe UI&quot;"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF449BD3"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1A4E87"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF888888"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +1615,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor rgb="FFF7F7F7"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor rgb="FFF4F4F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -382,7 +1650,29 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -405,9 +1695,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="31.0"/>
-    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="3" max="3" width="43.71"/>
     <col customWidth="1" min="4" max="4" width="17.71"/>
-    <col customWidth="1" min="6" max="7" width="34.57"/>
+    <col customWidth="1" min="6" max="6" width="34.57"/>
+    <col customWidth="1" min="7" max="7" width="401.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -866,7 +2157,7 @@
       <c r="F23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -945,6 +2236,3202 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>24515.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>19692.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>22161.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>19127.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>21725.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>22158.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>20976.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>19832.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>19699.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>17331.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>22162.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>19161.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>26400.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>20590.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>27125.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>21455.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>24519.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>21368.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>20523.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>27278.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>20540.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>24935.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>21453.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>25448.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>30338.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>26302.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>27114.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>25522.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>20524.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>26954.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>21443.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>26779.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>25521.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>21442.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>26264.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>26956.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>27032.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>27042.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>27100.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>25524.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>21445.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>20577.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>27119.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>27282.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>27115.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>37421.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>27026.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>20957.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>27089.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>26962.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>27028.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>27120.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>26433.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>26436.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>27056.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>26844.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>21435.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>26749.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>27075.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>27117.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>26847.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>27105.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>23100.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>27102.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>23098.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>27280.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>27171.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>28049.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>26951.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>27113.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>26958.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>27164.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>26265.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6">
+        <v>27106.0</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+      <c r="AC101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>27281.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>20548.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>20576.0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>27172.0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>27169.0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>27083.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>27210.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>26435.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>27127.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>27098.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>27209.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>27118.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>27122.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>27107.0</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>27094.0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>27116.0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>27061.0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>27641.0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>26959.0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>27029.0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>27081.0</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>27103.0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>27207.0</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>26960.0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>27086.0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>27168.0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>27025.0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>27123.0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>27099.0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6">
+        <v>28032.0</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
+      <c r="U131" s="8"/>
+      <c r="V131" s="8"/>
+      <c r="W131" s="8"/>
+      <c r="X131" s="8"/>
+      <c r="Y131" s="8"/>
+      <c r="Z131" s="8"/>
+      <c r="AA131" s="8"/>
+      <c r="AB131" s="8"/>
+      <c r="AC131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>42693.0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>26960.0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>26962.0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>27113.0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>27114.0</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>27116.0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>27117.0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>27118.0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>27119.0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>27120.0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>27115.0</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>20976.0</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>20253.0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>27028.0</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>42689.0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>48134.0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>48133.0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>48132.0</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>48130.0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>25741.0</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>24519.0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>24515.0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>21725.0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>28034.0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>26741.0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>27210.0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>47481.0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>27073.0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>42568.0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>21825.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>21824.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>20054.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>19832.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>19692.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>42685.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>20524.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>47994.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>47996.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>42576.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>27856.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>26957.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>28045.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>28046.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>28047.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>26956.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>42692.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>28032.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>28033.0</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>28036.0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>28049.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>26435.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>26959.0</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>26958.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>42625.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>42673.0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>24935.0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>42525.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>42565.0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>27172.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>27171.0</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>27170.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>27169.0</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>27168.0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>27167.0</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>27166.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>27164.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>27165.0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>27125.0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>27124.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>27110.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>27101.0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>27100.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>27096.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>27098.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>27087.0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>27086.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>27063.0</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>27062.0</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>47586.0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>47584.0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>47583.0</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>47582.0</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>47581.0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>21455.0</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>21453.0</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>42563.0</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>20862.0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>42637.0</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>42554.0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>42565.0</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>22212.0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>42688.0</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +5462,222 @@
     <hyperlink r:id="rId24" ref="B25"/>
     <hyperlink r:id="rId25" ref="B26"/>
     <hyperlink r:id="rId26" ref="B27"/>
+    <hyperlink r:id="rId27" ref="B28"/>
+    <hyperlink r:id="rId28" ref="B29"/>
+    <hyperlink r:id="rId29" ref="B30"/>
+    <hyperlink r:id="rId30" ref="B31"/>
+    <hyperlink r:id="rId31" ref="B32"/>
+    <hyperlink r:id="rId32" ref="B33"/>
+    <hyperlink r:id="rId33" ref="B34"/>
+    <hyperlink r:id="rId34" ref="B35"/>
+    <hyperlink r:id="rId35" ref="B36"/>
+    <hyperlink r:id="rId36" ref="B37"/>
+    <hyperlink r:id="rId37" ref="B38"/>
+    <hyperlink r:id="rId38" ref="B39"/>
+    <hyperlink r:id="rId39" ref="B40"/>
+    <hyperlink r:id="rId40" ref="B41"/>
+    <hyperlink r:id="rId41" ref="B42"/>
+    <hyperlink r:id="rId42" ref="B43"/>
+    <hyperlink r:id="rId43" ref="B44"/>
+    <hyperlink r:id="rId44" ref="B45"/>
+    <hyperlink r:id="rId45" ref="B46"/>
+    <hyperlink r:id="rId46" ref="B47"/>
+    <hyperlink r:id="rId47" ref="B48"/>
+    <hyperlink r:id="rId48" ref="B49"/>
+    <hyperlink r:id="rId49" ref="B50"/>
+    <hyperlink r:id="rId50" ref="B51"/>
+    <hyperlink r:id="rId51" ref="B52"/>
+    <hyperlink r:id="rId52" ref="B53"/>
+    <hyperlink r:id="rId53" ref="B54"/>
+    <hyperlink r:id="rId54" ref="B55"/>
+    <hyperlink r:id="rId55" ref="B56"/>
+    <hyperlink r:id="rId56" ref="B57"/>
+    <hyperlink r:id="rId57" ref="B58"/>
+    <hyperlink r:id="rId58" ref="B59"/>
+    <hyperlink r:id="rId59" ref="B60"/>
+    <hyperlink r:id="rId60" ref="B61"/>
+    <hyperlink r:id="rId61" ref="B62"/>
+    <hyperlink r:id="rId62" ref="B63"/>
+    <hyperlink r:id="rId63" ref="B64"/>
+    <hyperlink r:id="rId64" ref="B65"/>
+    <hyperlink r:id="rId65" ref="B66"/>
+    <hyperlink r:id="rId66" ref="B67"/>
+    <hyperlink r:id="rId67" ref="B68"/>
+    <hyperlink r:id="rId68" ref="B69"/>
+    <hyperlink r:id="rId69" ref="B70"/>
+    <hyperlink r:id="rId70" ref="B71"/>
+    <hyperlink r:id="rId71" ref="B72"/>
+    <hyperlink r:id="rId72" ref="B73"/>
+    <hyperlink r:id="rId73" ref="B74"/>
+    <hyperlink r:id="rId74" ref="B75"/>
+    <hyperlink r:id="rId75" ref="B76"/>
+    <hyperlink r:id="rId76" ref="B77"/>
+    <hyperlink r:id="rId77" ref="B78"/>
+    <hyperlink r:id="rId78" ref="B79"/>
+    <hyperlink r:id="rId79" ref="B80"/>
+    <hyperlink r:id="rId80" ref="B81"/>
+    <hyperlink r:id="rId81" ref="B82"/>
+    <hyperlink r:id="rId82" ref="B83"/>
+    <hyperlink r:id="rId83" ref="B84"/>
+    <hyperlink r:id="rId84" ref="B85"/>
+    <hyperlink r:id="rId85" ref="B86"/>
+    <hyperlink r:id="rId86" ref="B87"/>
+    <hyperlink r:id="rId87" ref="B88"/>
+    <hyperlink r:id="rId88" ref="B89"/>
+    <hyperlink r:id="rId89" ref="B90"/>
+    <hyperlink r:id="rId90" ref="B91"/>
+    <hyperlink r:id="rId91" ref="B92"/>
+    <hyperlink r:id="rId92" ref="B93"/>
+    <hyperlink r:id="rId93" ref="B94"/>
+    <hyperlink r:id="rId94" ref="B95"/>
+    <hyperlink r:id="rId95" ref="B96"/>
+    <hyperlink r:id="rId96" ref="B97"/>
+    <hyperlink r:id="rId97" ref="B98"/>
+    <hyperlink r:id="rId98" ref="B99"/>
+    <hyperlink r:id="rId99" ref="B100"/>
+    <hyperlink r:id="rId100" ref="B101"/>
+    <hyperlink r:id="rId101" ref="B102"/>
+    <hyperlink r:id="rId102" ref="B103"/>
+    <hyperlink r:id="rId103" ref="B104"/>
+    <hyperlink r:id="rId104" ref="B105"/>
+    <hyperlink r:id="rId105" ref="B106"/>
+    <hyperlink r:id="rId106" ref="B107"/>
+    <hyperlink r:id="rId107" ref="B108"/>
+    <hyperlink r:id="rId108" ref="B109"/>
+    <hyperlink r:id="rId109" ref="B110"/>
+    <hyperlink r:id="rId110" ref="B111"/>
+    <hyperlink r:id="rId111" ref="B112"/>
+    <hyperlink r:id="rId112" ref="B113"/>
+    <hyperlink r:id="rId113" ref="B114"/>
+    <hyperlink r:id="rId114" ref="B115"/>
+    <hyperlink r:id="rId115" ref="B116"/>
+    <hyperlink r:id="rId116" ref="B117"/>
+    <hyperlink r:id="rId117" ref="B118"/>
+    <hyperlink r:id="rId118" ref="B119"/>
+    <hyperlink r:id="rId119" ref="B120"/>
+    <hyperlink r:id="rId120" ref="B121"/>
+    <hyperlink r:id="rId121" ref="B122"/>
+    <hyperlink r:id="rId122" ref="B123"/>
+    <hyperlink r:id="rId123" ref="B124"/>
+    <hyperlink r:id="rId124" ref="B125"/>
+    <hyperlink r:id="rId125" ref="B126"/>
+    <hyperlink r:id="rId126" ref="B127"/>
+    <hyperlink r:id="rId127" ref="B128"/>
+    <hyperlink r:id="rId128" ref="B129"/>
+    <hyperlink r:id="rId129" ref="B130"/>
+    <hyperlink r:id="rId130" ref="B131"/>
+    <hyperlink r:id="rId131" ref="B132"/>
+    <hyperlink r:id="rId132" ref="B133"/>
+    <hyperlink r:id="rId133" ref="B134"/>
+    <hyperlink r:id="rId134" ref="B135"/>
+    <hyperlink r:id="rId135" ref="B136"/>
+    <hyperlink r:id="rId136" ref="B137"/>
+    <hyperlink r:id="rId137" ref="B138"/>
+    <hyperlink r:id="rId138" ref="B139"/>
+    <hyperlink r:id="rId139" ref="B140"/>
+    <hyperlink r:id="rId140" ref="B141"/>
+    <hyperlink r:id="rId141" ref="B142"/>
+    <hyperlink r:id="rId142" ref="B143"/>
+    <hyperlink r:id="rId143" ref="B144"/>
+    <hyperlink r:id="rId144" ref="B145"/>
+    <hyperlink r:id="rId145" ref="B146"/>
+    <hyperlink r:id="rId146" ref="B147"/>
+    <hyperlink r:id="rId147" ref="G147"/>
+    <hyperlink r:id="rId148" ref="B148"/>
+    <hyperlink r:id="rId149" ref="G148"/>
+    <hyperlink r:id="rId150" ref="B149"/>
+    <hyperlink r:id="rId151" ref="G149"/>
+    <hyperlink r:id="rId152" ref="B150"/>
+    <hyperlink r:id="rId153" ref="G150"/>
+    <hyperlink r:id="rId154" ref="B151"/>
+    <hyperlink r:id="rId155" ref="G151"/>
+    <hyperlink r:id="rId156" ref="B152"/>
+    <hyperlink r:id="rId157" ref="G152"/>
+    <hyperlink r:id="rId158" ref="B153"/>
+    <hyperlink r:id="rId159" ref="G153"/>
+    <hyperlink r:id="rId160" ref="B154"/>
+    <hyperlink r:id="rId161" ref="G154"/>
+    <hyperlink r:id="rId162" ref="B155"/>
+    <hyperlink r:id="rId163" ref="G155"/>
+    <hyperlink r:id="rId164" ref="B156"/>
+    <hyperlink r:id="rId165" ref="G156"/>
+    <hyperlink r:id="rId166" ref="B157"/>
+    <hyperlink r:id="rId167" ref="G157"/>
+    <hyperlink r:id="rId168" ref="B158"/>
+    <hyperlink r:id="rId169" ref="G158"/>
+    <hyperlink r:id="rId170" ref="B159"/>
+    <hyperlink r:id="rId171" ref="G159"/>
+    <hyperlink r:id="rId172" ref="B160"/>
+    <hyperlink r:id="rId173" ref="G160"/>
+    <hyperlink r:id="rId174" ref="B161"/>
+    <hyperlink r:id="rId175" ref="G161"/>
+    <hyperlink r:id="rId176" ref="B162"/>
+    <hyperlink r:id="rId177" ref="G162"/>
+    <hyperlink r:id="rId178" ref="B163"/>
+    <hyperlink r:id="rId179" ref="G163"/>
+    <hyperlink r:id="rId180" ref="B164"/>
+    <hyperlink r:id="rId181" ref="G164"/>
+    <hyperlink r:id="rId182" ref="B165"/>
+    <hyperlink r:id="rId183" ref="G165"/>
+    <hyperlink r:id="rId184" ref="B166"/>
+    <hyperlink r:id="rId185" ref="B167"/>
+    <hyperlink r:id="rId186" ref="B168"/>
+    <hyperlink r:id="rId187" ref="B169"/>
+    <hyperlink r:id="rId188" ref="B170"/>
+    <hyperlink r:id="rId189" ref="B171"/>
+    <hyperlink r:id="rId190" ref="B172"/>
+    <hyperlink r:id="rId191" ref="B173"/>
+    <hyperlink r:id="rId192" ref="B174"/>
+    <hyperlink r:id="rId193" ref="B175"/>
+    <hyperlink r:id="rId194" ref="B176"/>
+    <hyperlink r:id="rId195" ref="B177"/>
+    <hyperlink r:id="rId196" ref="B178"/>
+    <hyperlink r:id="rId197" ref="B179"/>
+    <hyperlink r:id="rId198" ref="B180"/>
+    <hyperlink r:id="rId199" ref="B181"/>
+    <hyperlink r:id="rId200" ref="B182"/>
+    <hyperlink r:id="rId201" ref="B183"/>
+    <hyperlink r:id="rId202" ref="B184"/>
+    <hyperlink r:id="rId203" ref="B185"/>
+    <hyperlink r:id="rId204" ref="B186"/>
+    <hyperlink r:id="rId205" ref="B187"/>
+    <hyperlink r:id="rId206" ref="B188"/>
+    <hyperlink r:id="rId207" ref="B189"/>
+    <hyperlink r:id="rId208" ref="B190"/>
+    <hyperlink r:id="rId209" ref="B191"/>
+    <hyperlink r:id="rId210" ref="B192"/>
+    <hyperlink r:id="rId211" ref="B193"/>
+    <hyperlink r:id="rId212" ref="B194"/>
+    <hyperlink r:id="rId213" ref="B195"/>
+    <hyperlink r:id="rId214" ref="B196"/>
+    <hyperlink r:id="rId215" ref="B197"/>
+    <hyperlink r:id="rId216" ref="B198"/>
+    <hyperlink r:id="rId217" ref="B199"/>
+    <hyperlink r:id="rId218" ref="B200"/>
+    <hyperlink r:id="rId219" ref="B201"/>
+    <hyperlink r:id="rId220" ref="B202"/>
+    <hyperlink r:id="rId221" ref="B203"/>
+    <hyperlink r:id="rId222" ref="B204"/>
+    <hyperlink r:id="rId223" ref="B205"/>
+    <hyperlink r:id="rId224" ref="B206"/>
+    <hyperlink r:id="rId225" ref="B207"/>
+    <hyperlink r:id="rId226" ref="B208"/>
+    <hyperlink r:id="rId227" ref="B209"/>
+    <hyperlink r:id="rId228" ref="B210"/>
+    <hyperlink r:id="rId229" ref="B211"/>
+    <hyperlink r:id="rId230" ref="B212"/>
+    <hyperlink r:id="rId231" ref="B213"/>
+    <hyperlink r:id="rId232" ref="B214"/>
+    <hyperlink r:id="rId233" ref="B215"/>
+    <hyperlink r:id="rId234" ref="B216"/>
+    <hyperlink r:id="rId235" ref="B217"/>
+    <hyperlink r:id="rId236" ref="B218"/>
+    <hyperlink r:id="rId237" ref="B219"/>
+    <hyperlink r:id="rId238" ref="B220"/>
+    <hyperlink r:id="rId239" ref="B221"/>
+    <hyperlink r:id="rId240" ref="B222"/>
+    <hyperlink r:id="rId241" ref="B223"/>
   </hyperlinks>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId242"/>
 </worksheet>
 </file>